--- a/test_data/tiny_41235.asc_out.xlsx
+++ b/test_data/tiny_41235.asc_out.xlsx
@@ -16,11 +16,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">Client:GDF Suez
+    <t xml:space="preserve">Client:ABC
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Well No.:K12-G8
+    <t xml:space="preserve">Well No.:ABC-8
 </t>
   </si>
   <si>
@@ -36,7 +36,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Expro Engineer:Joshua van der Kuijl
+    <t xml:space="preserve">Expro Engineer:Joshua Jansen
 </t>
   </si>
   <si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,30 +486,30 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>40271.61905092592</v>
+        <v>40271.61880787037</v>
       </c>
       <c r="C11">
-        <v>0.0072</v>
+        <v>0.0014</v>
       </c>
       <c r="D11">
         <v>0.986</v>
       </c>
       <c r="E11">
-        <v>21.58</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>40271.62253472222</v>
+        <v>40271.61886574074</v>
       </c>
       <c r="C12">
-        <v>0.09080000000000001</v>
+        <v>0.0027</v>
       </c>
       <c r="D12">
         <v>0.986</v>
@@ -520,257 +520,3793 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>40271.62947916667</v>
+        <v>40271.61892361111</v>
       </c>
       <c r="C13">
-        <v>0.2575</v>
+        <v>0.0041</v>
       </c>
       <c r="D13">
         <v>0.986</v>
       </c>
       <c r="E13">
-        <v>16.32</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>40271.63295138889</v>
+        <v>40271.61898148148</v>
       </c>
       <c r="C14">
-        <v>0.3408</v>
+        <v>0.0055</v>
       </c>
       <c r="D14">
-        <v>109.205</v>
+        <v>0.986</v>
       </c>
       <c r="E14">
-        <v>20.23</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>40271.63642361111</v>
+        <v>40271.61903935186</v>
       </c>
       <c r="C15">
-        <v>0.4241</v>
+        <v>0.0069</v>
       </c>
       <c r="D15">
-        <v>113.091</v>
+        <v>0.986</v>
       </c>
       <c r="E15">
-        <v>30.59</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>40271.64336805556</v>
+        <v>40271.62253472222</v>
       </c>
       <c r="C16">
-        <v>0.5908</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="D16">
-        <v>121.05</v>
+        <v>0.986</v>
       </c>
       <c r="E16">
-        <v>45.68</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
-        <v>40271.64684027778</v>
+        <v>40271.62600694445</v>
       </c>
       <c r="C17">
-        <v>0.6741</v>
+        <v>0.1741</v>
       </c>
       <c r="D17">
-        <v>124.445</v>
+        <v>0.986</v>
       </c>
       <c r="E17">
-        <v>56.01</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>40271.67114583333</v>
+        <v>40271.62947916667</v>
       </c>
       <c r="C18">
-        <v>1.2576</v>
+        <v>0.2575</v>
       </c>
       <c r="D18">
-        <v>146.423</v>
+        <v>0.986</v>
       </c>
       <c r="E18">
-        <v>119.38</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>40271.67461805556</v>
+        <v>40271.63295138889</v>
       </c>
       <c r="C19">
-        <v>1.341</v>
+        <v>0.3408</v>
       </c>
       <c r="D19">
-        <v>151.142</v>
+        <v>109.205</v>
       </c>
       <c r="E19">
-        <v>124.32</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>40271.67810185185</v>
+        <v>40271.63642361111</v>
       </c>
       <c r="C20">
-        <v>1.4243</v>
+        <v>0.4241</v>
       </c>
       <c r="D20">
-        <v>163.579</v>
+        <v>113.091</v>
       </c>
       <c r="E20">
-        <v>127.4</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>40271.68157407407</v>
+        <v>40271.63989583333</v>
       </c>
       <c r="C21">
-        <v>1.5077</v>
+        <v>0.5075</v>
       </c>
       <c r="D21">
-        <v>169.256</v>
+        <v>117.296</v>
       </c>
       <c r="E21">
-        <v>129.32</v>
+        <v>37.19</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>40271.87609953704</v>
+        <v>40271.64336805556</v>
       </c>
       <c r="C22">
-        <v>6.1765</v>
+        <v>0.5908</v>
       </c>
       <c r="D22">
-        <v>144.184</v>
+        <v>121.05</v>
       </c>
       <c r="E22">
-        <v>129.36</v>
+        <v>45.68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>40272.2234837963</v>
+        <v>40271.64684027778</v>
       </c>
       <c r="C23">
-        <v>14.5135</v>
+        <v>0.6741</v>
       </c>
       <c r="D23">
-        <v>145.771</v>
+        <v>124.445</v>
       </c>
       <c r="E23">
-        <v>129.73</v>
+        <v>56.01</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>40272.57085648148</v>
+        <v>40271.6503125</v>
       </c>
       <c r="C24">
-        <v>22.8506</v>
+        <v>0.7575</v>
       </c>
       <c r="D24">
-        <v>146.679</v>
+        <v>127.639</v>
       </c>
       <c r="E24">
-        <v>129.85</v>
+        <v>66.29000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>40272.91822916667</v>
+        <v>40271.65378472222</v>
       </c>
       <c r="C25">
-        <v>31.1876</v>
+        <v>0.8408</v>
       </c>
       <c r="D25">
-        <v>145.239</v>
+        <v>130.783</v>
       </c>
       <c r="E25">
-        <v>129.85</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>500</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>40273.26561342592</v>
+        <v>40271.65725694445</v>
       </c>
       <c r="C26">
-        <v>39.5247</v>
+        <v>0.9242</v>
       </c>
       <c r="D26">
-        <v>148.311</v>
+        <v>133.882</v>
       </c>
       <c r="E26">
-        <v>129.98</v>
+        <v>86.54000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2">
+        <v>40271.66072916667</v>
+      </c>
+      <c r="C27">
+        <v>1.0075</v>
+      </c>
+      <c r="D27">
+        <v>136.99</v>
+      </c>
+      <c r="E27">
+        <v>96.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>40271.66420138889</v>
+      </c>
+      <c r="C28">
+        <v>1.0909</v>
+      </c>
+      <c r="D28">
+        <v>140.113</v>
+      </c>
+      <c r="E28">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40271.66767361111</v>
+      </c>
+      <c r="C29">
+        <v>1.1742</v>
+      </c>
+      <c r="D29">
+        <v>143.19</v>
+      </c>
+      <c r="E29">
+        <v>112.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2">
+        <v>40271.67114583333</v>
+      </c>
+      <c r="C30">
+        <v>1.2576</v>
+      </c>
+      <c r="D30">
+        <v>146.423</v>
+      </c>
+      <c r="E30">
+        <v>119.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>40271.67461805556</v>
+      </c>
+      <c r="C31">
+        <v>1.341</v>
+      </c>
+      <c r="D31">
+        <v>151.142</v>
+      </c>
+      <c r="E31">
+        <v>124.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2">
+        <v>40271.67810185185</v>
+      </c>
+      <c r="C32">
+        <v>1.4243</v>
+      </c>
+      <c r="D32">
+        <v>163.579</v>
+      </c>
+      <c r="E32">
+        <v>127.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2">
+        <v>40271.68157407407</v>
+      </c>
+      <c r="C33">
+        <v>1.5077</v>
+      </c>
+      <c r="D33">
+        <v>169.256</v>
+      </c>
+      <c r="E33">
+        <v>129.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2">
+        <v>40271.6850462963</v>
+      </c>
+      <c r="C34">
+        <v>1.5911</v>
+      </c>
+      <c r="D34">
+        <v>171.075</v>
+      </c>
+      <c r="E34">
+        <v>130.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2">
+        <v>40271.68851851852</v>
+      </c>
+      <c r="C35">
+        <v>1.6744</v>
+      </c>
+      <c r="D35">
+        <v>171.818</v>
+      </c>
+      <c r="E35">
+        <v>131.07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2">
+        <v>40271.69199074074</v>
+      </c>
+      <c r="C36">
+        <v>1.7578</v>
+      </c>
+      <c r="D36">
+        <v>172.46</v>
+      </c>
+      <c r="E36">
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2">
+        <v>40271.69546296296</v>
+      </c>
+      <c r="C37">
+        <v>1.8412</v>
+      </c>
+      <c r="D37">
+        <v>173.119</v>
+      </c>
+      <c r="E37">
+        <v>131.57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>49</v>
+      </c>
+      <c r="B38" s="2">
+        <v>40271.69893518519</v>
+      </c>
+      <c r="C38">
+        <v>1.9246</v>
+      </c>
+      <c r="D38">
+        <v>173.824</v>
+      </c>
+      <c r="E38">
+        <v>131.67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2">
+        <v>40271.70241898148</v>
+      </c>
+      <c r="C39">
+        <v>2.0079</v>
+      </c>
+      <c r="D39">
+        <v>174.495</v>
+      </c>
+      <c r="E39">
+        <v>131.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2">
+        <v>40271.7058912037</v>
+      </c>
+      <c r="C40">
+        <v>2.0913</v>
+      </c>
+      <c r="D40">
+        <v>175.117</v>
+      </c>
+      <c r="E40">
+        <v>131.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2">
+        <v>40271.70936342593</v>
+      </c>
+      <c r="C41">
+        <v>2.1747</v>
+      </c>
+      <c r="D41">
+        <v>175.706</v>
+      </c>
+      <c r="E41">
+        <v>131.81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2">
+        <v>40271.71283564815</v>
+      </c>
+      <c r="C42">
+        <v>2.258</v>
+      </c>
+      <c r="D42">
+        <v>176.342</v>
+      </c>
+      <c r="E42">
+        <v>131.84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2">
+        <v>40271.71630787037</v>
+      </c>
+      <c r="C43">
+        <v>2.3414</v>
+      </c>
+      <c r="D43">
+        <v>176.951</v>
+      </c>
+      <c r="E43">
+        <v>131.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2">
+        <v>40271.71978009259</v>
+      </c>
+      <c r="C44">
+        <v>2.4248</v>
+      </c>
+      <c r="D44">
+        <v>177.542</v>
+      </c>
+      <c r="E44">
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2">
+        <v>40271.72325231481</v>
+      </c>
+      <c r="C45">
+        <v>2.5082</v>
+      </c>
+      <c r="D45">
+        <v>178.117</v>
+      </c>
+      <c r="E45">
+        <v>131.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>57</v>
+      </c>
+      <c r="B46" s="2">
+        <v>40271.72673611111</v>
+      </c>
+      <c r="C46">
+        <v>2.5915</v>
+      </c>
+      <c r="D46">
+        <v>178.665</v>
+      </c>
+      <c r="E46">
+        <v>131.94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>58</v>
+      </c>
+      <c r="B47" s="2">
+        <v>40271.73020833333</v>
+      </c>
+      <c r="C47">
+        <v>2.6749</v>
+      </c>
+      <c r="D47">
+        <v>179.194</v>
+      </c>
+      <c r="E47">
+        <v>131.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2">
+        <v>40271.73368055555</v>
+      </c>
+      <c r="C48">
+        <v>2.7583</v>
+      </c>
+      <c r="D48">
+        <v>179.721</v>
+      </c>
+      <c r="E48">
+        <v>131.98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2">
+        <v>40271.73715277778</v>
+      </c>
+      <c r="C49">
+        <v>2.8417</v>
+      </c>
+      <c r="D49">
+        <v>180.206</v>
+      </c>
+      <c r="E49">
+        <v>131.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2">
+        <v>40271.740625</v>
+      </c>
+      <c r="C50">
+        <v>2.925</v>
+      </c>
+      <c r="D50">
+        <v>180.709</v>
+      </c>
+      <c r="E50">
+        <v>132.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>62</v>
+      </c>
+      <c r="B51" s="2">
+        <v>40271.74409722222</v>
+      </c>
+      <c r="C51">
+        <v>3.0084</v>
+      </c>
+      <c r="D51">
+        <v>181.196</v>
+      </c>
+      <c r="E51">
+        <v>132.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2">
+        <v>40271.74756944444</v>
+      </c>
+      <c r="C52">
+        <v>3.0918</v>
+      </c>
+      <c r="D52">
+        <v>181.669</v>
+      </c>
+      <c r="E52">
+        <v>132.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>64</v>
+      </c>
+      <c r="B53" s="2">
+        <v>40271.75105324074</v>
+      </c>
+      <c r="C53">
+        <v>3.1751</v>
+      </c>
+      <c r="D53">
+        <v>182.132</v>
+      </c>
+      <c r="E53">
+        <v>132.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>65</v>
+      </c>
+      <c r="B54" s="2">
+        <v>40271.75452546297</v>
+      </c>
+      <c r="C54">
+        <v>3.2585</v>
+      </c>
+      <c r="D54">
+        <v>182.554</v>
+      </c>
+      <c r="E54">
+        <v>132.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>66</v>
+      </c>
+      <c r="B55" s="2">
+        <v>40271.75799768518</v>
+      </c>
+      <c r="C55">
+        <v>3.3419</v>
+      </c>
+      <c r="D55">
+        <v>182.881</v>
+      </c>
+      <c r="E55">
+        <v>132.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>67</v>
+      </c>
+      <c r="B56" s="2">
+        <v>40271.7614699074</v>
+      </c>
+      <c r="C56">
+        <v>3.4253</v>
+      </c>
+      <c r="D56">
+        <v>183.171</v>
+      </c>
+      <c r="E56">
+        <v>132.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>68</v>
+      </c>
+      <c r="B57" s="2">
+        <v>40271.76494212963</v>
+      </c>
+      <c r="C57">
+        <v>3.5086</v>
+      </c>
+      <c r="D57">
+        <v>183.432</v>
+      </c>
+      <c r="E57">
+        <v>132.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>69</v>
+      </c>
+      <c r="B58" s="2">
+        <v>40271.76841435185</v>
+      </c>
+      <c r="C58">
+        <v>3.592</v>
+      </c>
+      <c r="D58">
+        <v>183.746</v>
+      </c>
+      <c r="E58">
+        <v>132.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>70</v>
+      </c>
+      <c r="B59" s="2">
+        <v>40271.77188657408</v>
+      </c>
+      <c r="C59">
+        <v>3.6754</v>
+      </c>
+      <c r="D59">
+        <v>183.535</v>
+      </c>
+      <c r="E59">
+        <v>132.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>71</v>
+      </c>
+      <c r="B60" s="2">
+        <v>40271.77535879629</v>
+      </c>
+      <c r="C60">
+        <v>3.7587</v>
+      </c>
+      <c r="D60">
+        <v>183.791</v>
+      </c>
+      <c r="E60">
+        <v>132.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>72</v>
+      </c>
+      <c r="B61" s="2">
+        <v>40271.77884259259</v>
+      </c>
+      <c r="C61">
+        <v>3.8421</v>
+      </c>
+      <c r="D61">
+        <v>184.053</v>
+      </c>
+      <c r="E61">
+        <v>132.09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>73</v>
+      </c>
+      <c r="B62" s="2">
+        <v>40271.78231481482</v>
+      </c>
+      <c r="C62">
+        <v>3.9255</v>
+      </c>
+      <c r="D62">
+        <v>184.239</v>
+      </c>
+      <c r="E62">
+        <v>132.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>75</v>
+      </c>
+      <c r="B63" s="2">
+        <v>40271.78925925926</v>
+      </c>
+      <c r="C63">
+        <v>4.0922</v>
+      </c>
+      <c r="D63">
+        <v>184.471</v>
+      </c>
+      <c r="E63">
+        <v>132.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2">
+        <v>40271.79273148148</v>
+      </c>
+      <c r="C64">
+        <v>4.1756</v>
+      </c>
+      <c r="D64">
+        <v>184.583</v>
+      </c>
+      <c r="E64">
+        <v>132.12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>77</v>
+      </c>
+      <c r="B65" s="2">
+        <v>40271.79620370371</v>
+      </c>
+      <c r="C65">
+        <v>4.259</v>
+      </c>
+      <c r="D65">
+        <v>181.717</v>
+      </c>
+      <c r="E65">
+        <v>132.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>78</v>
+      </c>
+      <c r="B66" s="2">
+        <v>40271.79967592593</v>
+      </c>
+      <c r="C66">
+        <v>4.3424</v>
+      </c>
+      <c r="D66">
+        <v>179.689</v>
+      </c>
+      <c r="E66">
+        <v>131.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>79</v>
+      </c>
+      <c r="B67" s="2">
+        <v>40271.80315972222</v>
+      </c>
+      <c r="C67">
+        <v>4.4257</v>
+      </c>
+      <c r="D67">
+        <v>177.735</v>
+      </c>
+      <c r="E67">
+        <v>131.62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>80</v>
+      </c>
+      <c r="B68" s="2">
+        <v>40271.80663194445</v>
+      </c>
+      <c r="C68">
+        <v>4.5091</v>
+      </c>
+      <c r="D68">
+        <v>176.046</v>
+      </c>
+      <c r="E68">
+        <v>131.41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>81</v>
+      </c>
+      <c r="B69" s="2">
+        <v>40271.81010416667</v>
+      </c>
+      <c r="C69">
+        <v>4.5925</v>
+      </c>
+      <c r="D69">
+        <v>174.606</v>
+      </c>
+      <c r="E69">
+        <v>131.17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>82</v>
+      </c>
+      <c r="B70" s="2">
+        <v>40271.81357638889</v>
+      </c>
+      <c r="C70">
+        <v>4.6758</v>
+      </c>
+      <c r="D70">
+        <v>173.15</v>
+      </c>
+      <c r="E70">
+        <v>130.97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>83</v>
+      </c>
+      <c r="B71" s="2">
+        <v>40271.81704861111</v>
+      </c>
+      <c r="C71">
+        <v>4.7592</v>
+      </c>
+      <c r="D71">
+        <v>170.515</v>
+      </c>
+      <c r="E71">
+        <v>130.79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>84</v>
+      </c>
+      <c r="B72" s="2">
+        <v>40271.82052083333</v>
+      </c>
+      <c r="C72">
+        <v>4.8426</v>
+      </c>
+      <c r="D72">
+        <v>167.089</v>
+      </c>
+      <c r="E72">
+        <v>130.59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>85</v>
+      </c>
+      <c r="B73" s="2">
+        <v>40271.82399305556</v>
+      </c>
+      <c r="C73">
+        <v>4.926</v>
+      </c>
+      <c r="D73">
+        <v>164.028</v>
+      </c>
+      <c r="E73">
+        <v>130.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>86</v>
+      </c>
+      <c r="B74" s="2">
+        <v>40271.82747685185</v>
+      </c>
+      <c r="C74">
+        <v>5.0093</v>
+      </c>
+      <c r="D74">
+        <v>161.396</v>
+      </c>
+      <c r="E74">
+        <v>130.28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>87</v>
+      </c>
+      <c r="B75" s="2">
+        <v>40271.83094907407</v>
+      </c>
+      <c r="C75">
+        <v>5.0927</v>
+      </c>
+      <c r="D75">
+        <v>159.037</v>
+      </c>
+      <c r="E75">
+        <v>130.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>88</v>
+      </c>
+      <c r="B76" s="2">
+        <v>40271.8344212963</v>
+      </c>
+      <c r="C76">
+        <v>5.1761</v>
+      </c>
+      <c r="D76">
+        <v>156.925</v>
+      </c>
+      <c r="E76">
+        <v>130.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>89</v>
+      </c>
+      <c r="B77" s="2">
+        <v>40271.83789351852</v>
+      </c>
+      <c r="C77">
+        <v>5.2594</v>
+      </c>
+      <c r="D77">
+        <v>155.003</v>
+      </c>
+      <c r="E77">
+        <v>130.14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>90</v>
+      </c>
+      <c r="B78" s="2">
+        <v>40271.84136574074</v>
+      </c>
+      <c r="C78">
+        <v>5.3428</v>
+      </c>
+      <c r="D78">
+        <v>153.263</v>
+      </c>
+      <c r="E78">
+        <v>130.11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>91</v>
+      </c>
+      <c r="B79" s="2">
+        <v>40271.84483796296</v>
+      </c>
+      <c r="C79">
+        <v>5.4262</v>
+      </c>
+      <c r="D79">
+        <v>151.675</v>
+      </c>
+      <c r="E79">
+        <v>130.07</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>92</v>
+      </c>
+      <c r="B80" s="2">
+        <v>40271.84831018518</v>
+      </c>
+      <c r="C80">
+        <v>5.5095</v>
+      </c>
+      <c r="D80">
+        <v>150.227</v>
+      </c>
+      <c r="E80">
+        <v>130.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>93</v>
+      </c>
+      <c r="B81" s="2">
+        <v>40271.85179398148</v>
+      </c>
+      <c r="C81">
+        <v>5.5929</v>
+      </c>
+      <c r="D81">
+        <v>148.862</v>
+      </c>
+      <c r="E81">
+        <v>130.08</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>94</v>
+      </c>
+      <c r="B82" s="2">
+        <v>40271.8552662037</v>
+      </c>
+      <c r="C82">
+        <v>5.6763</v>
+      </c>
+      <c r="D82">
+        <v>147.975</v>
+      </c>
+      <c r="E82">
+        <v>129.94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>95</v>
+      </c>
+      <c r="B83" s="2">
+        <v>40271.85873842592</v>
+      </c>
+      <c r="C83">
+        <v>5.7597</v>
+      </c>
+      <c r="D83">
+        <v>147.172</v>
+      </c>
+      <c r="E83">
+        <v>129.76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>96</v>
+      </c>
+      <c r="B84" s="2">
+        <v>40271.86221064815</v>
+      </c>
+      <c r="C84">
+        <v>5.843</v>
+      </c>
+      <c r="D84">
+        <v>146.451</v>
+      </c>
+      <c r="E84">
+        <v>129.62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2">
+        <v>40271.86568287037</v>
+      </c>
+      <c r="C85">
+        <v>5.9264</v>
+      </c>
+      <c r="D85">
+        <v>145.763</v>
+      </c>
+      <c r="E85">
+        <v>129.52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>98</v>
+      </c>
+      <c r="B86" s="2">
+        <v>40271.86915509259</v>
+      </c>
+      <c r="C86">
+        <v>6.0098</v>
+      </c>
+      <c r="D86">
+        <v>145.184</v>
+      </c>
+      <c r="E86">
+        <v>129.45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>99</v>
+      </c>
+      <c r="B87" s="2">
+        <v>40271.87262731481</v>
+      </c>
+      <c r="C87">
+        <v>6.0931</v>
+      </c>
+      <c r="D87">
+        <v>144.603</v>
+      </c>
+      <c r="E87">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>100</v>
+      </c>
+      <c r="B88" s="2">
+        <v>40271.87609953704</v>
+      </c>
+      <c r="C88">
+        <v>6.1765</v>
+      </c>
+      <c r="D88">
+        <v>144.184</v>
+      </c>
+      <c r="E88">
+        <v>129.36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>101</v>
+      </c>
+      <c r="B89" s="2">
+        <v>40271.87958333334</v>
+      </c>
+      <c r="C89">
+        <v>6.2599</v>
+      </c>
+      <c r="D89">
+        <v>143.726</v>
+      </c>
+      <c r="E89">
+        <v>129.33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>102</v>
+      </c>
+      <c r="B90" s="2">
+        <v>40271.88305555555</v>
+      </c>
+      <c r="C90">
+        <v>6.3433</v>
+      </c>
+      <c r="D90">
+        <v>143.42</v>
+      </c>
+      <c r="E90">
+        <v>129.31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>103</v>
+      </c>
+      <c r="B91" s="2">
+        <v>40271.88652777778</v>
+      </c>
+      <c r="C91">
+        <v>6.4266</v>
+      </c>
+      <c r="D91">
+        <v>143.032</v>
+      </c>
+      <c r="E91">
+        <v>129.29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>104</v>
+      </c>
+      <c r="B92" s="2">
+        <v>40271.89</v>
+      </c>
+      <c r="C92">
+        <v>6.51</v>
+      </c>
+      <c r="D92">
+        <v>142.728</v>
+      </c>
+      <c r="E92">
+        <v>129.28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>105</v>
+      </c>
+      <c r="B93" s="2">
+        <v>40271.89347222223</v>
+      </c>
+      <c r="C93">
+        <v>6.5934</v>
+      </c>
+      <c r="D93">
+        <v>142.545</v>
+      </c>
+      <c r="E93">
+        <v>129.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>106</v>
+      </c>
+      <c r="B94" s="2">
+        <v>40271.89694444444</v>
+      </c>
+      <c r="C94">
+        <v>6.6767</v>
+      </c>
+      <c r="D94">
+        <v>142.297</v>
+      </c>
+      <c r="E94">
+        <v>129.27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2">
+        <v>40271.90041666666</v>
+      </c>
+      <c r="C95">
+        <v>6.7601</v>
+      </c>
+      <c r="D95">
+        <v>142.245</v>
+      </c>
+      <c r="E95">
+        <v>129.26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>108</v>
+      </c>
+      <c r="B96" s="2">
+        <v>40271.90390046296</v>
+      </c>
+      <c r="C96">
+        <v>6.8435</v>
+      </c>
+      <c r="D96">
+        <v>142.081</v>
+      </c>
+      <c r="E96">
+        <v>129.26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>110</v>
+      </c>
+      <c r="B97" s="2">
+        <v>40271.9108449074</v>
+      </c>
+      <c r="C97">
+        <v>7.0102</v>
+      </c>
+      <c r="D97">
+        <v>141.917</v>
+      </c>
+      <c r="E97">
+        <v>129.27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>115</v>
+      </c>
+      <c r="B98" s="2">
+        <v>40271.92820601852</v>
+      </c>
+      <c r="C98">
+        <v>7.4271</v>
+      </c>
+      <c r="D98">
+        <v>141.686</v>
+      </c>
+      <c r="E98">
+        <v>129.28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>116</v>
+      </c>
+      <c r="B99" s="2">
+        <v>40271.93168981482</v>
+      </c>
+      <c r="C99">
+        <v>7.5104</v>
+      </c>
+      <c r="D99">
+        <v>141.537</v>
+      </c>
+      <c r="E99">
+        <v>129.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2">
+        <v>40271.9455787037</v>
+      </c>
+      <c r="C100">
+        <v>7.8439</v>
+      </c>
+      <c r="D100">
+        <v>141.224</v>
+      </c>
+      <c r="E100">
+        <v>129.28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>125</v>
+      </c>
+      <c r="B101" s="2">
+        <v>40271.96295138889</v>
+      </c>
+      <c r="C101">
+        <v>8.2608</v>
+      </c>
+      <c r="D101">
+        <v>141.325</v>
+      </c>
+      <c r="E101">
+        <v>129.31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>130</v>
+      </c>
+      <c r="B102" s="2">
+        <v>40271.9803125</v>
+      </c>
+      <c r="C102">
+        <v>8.6776</v>
+      </c>
+      <c r="D102">
+        <v>141.685</v>
+      </c>
+      <c r="E102">
+        <v>129.35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>135</v>
+      </c>
+      <c r="B103" s="2">
+        <v>40271.99768518518</v>
+      </c>
+      <c r="C103">
+        <v>9.0945</v>
+      </c>
+      <c r="D103">
+        <v>142.177</v>
+      </c>
+      <c r="E103">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>139</v>
+      </c>
+      <c r="B104" s="2">
+        <v>40272.01158564815</v>
+      </c>
+      <c r="C104">
+        <v>9.427899999999999</v>
+      </c>
+      <c r="D104">
+        <v>142.561</v>
+      </c>
+      <c r="E104">
+        <v>129.43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>140</v>
+      </c>
+      <c r="B105" s="2">
+        <v>40272.01505787037</v>
+      </c>
+      <c r="C105">
+        <v>9.5113</v>
+      </c>
+      <c r="D105">
+        <v>142.708</v>
+      </c>
+      <c r="E105">
+        <v>129.44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>142</v>
+      </c>
+      <c r="B106" s="2">
+        <v>40272.02200231481</v>
+      </c>
+      <c r="C106">
+        <v>9.678100000000001</v>
+      </c>
+      <c r="D106">
+        <v>142.876</v>
+      </c>
+      <c r="E106">
+        <v>129.46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>143</v>
+      </c>
+      <c r="B107" s="2">
+        <v>40272.02547453704</v>
+      </c>
+      <c r="C107">
+        <v>9.7614</v>
+      </c>
+      <c r="D107">
+        <v>143.033</v>
+      </c>
+      <c r="E107">
+        <v>129.47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>145</v>
+      </c>
+      <c r="B108" s="2">
+        <v>40272.03241898148</v>
+      </c>
+      <c r="C108">
+        <v>9.9282</v>
+      </c>
+      <c r="D108">
+        <v>143.222</v>
+      </c>
+      <c r="E108">
+        <v>129.48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>150</v>
+      </c>
+      <c r="B109" s="2">
+        <v>40272.04979166666</v>
+      </c>
+      <c r="C109">
+        <v>10.345</v>
+      </c>
+      <c r="D109">
+        <v>143.553</v>
+      </c>
+      <c r="E109">
+        <v>129.52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>155</v>
+      </c>
+      <c r="B110" s="2">
+        <v>40272.06716435185</v>
+      </c>
+      <c r="C110">
+        <v>10.7619</v>
+      </c>
+      <c r="D110">
+        <v>143.926</v>
+      </c>
+      <c r="E110">
+        <v>129.55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>160</v>
+      </c>
+      <c r="B111" s="2">
+        <v>40272.08452546296</v>
+      </c>
+      <c r="C111">
+        <v>11.1787</v>
+      </c>
+      <c r="D111">
+        <v>144.206</v>
+      </c>
+      <c r="E111">
+        <v>129.58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>165</v>
+      </c>
+      <c r="B112" s="2">
+        <v>40272.10189814815</v>
+      </c>
+      <c r="C112">
+        <v>11.5956</v>
+      </c>
+      <c r="D112">
+        <v>144.529</v>
+      </c>
+      <c r="E112">
+        <v>129.61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>170</v>
+      </c>
+      <c r="B113" s="2">
+        <v>40272.11927083333</v>
+      </c>
+      <c r="C113">
+        <v>12.0124</v>
+      </c>
+      <c r="D113">
+        <v>144.809</v>
+      </c>
+      <c r="E113">
+        <v>129.63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>175</v>
+      </c>
+      <c r="B114" s="2">
+        <v>40272.13663194444</v>
+      </c>
+      <c r="C114">
+        <v>12.4293</v>
+      </c>
+      <c r="D114">
+        <v>144.957</v>
+      </c>
+      <c r="E114">
+        <v>129.65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>180</v>
+      </c>
+      <c r="B115" s="2">
+        <v>40272.15400462963</v>
+      </c>
+      <c r="C115">
+        <v>12.8461</v>
+      </c>
+      <c r="D115">
+        <v>145.167</v>
+      </c>
+      <c r="E115">
+        <v>129.67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>185</v>
+      </c>
+      <c r="B116" s="2">
+        <v>40272.17137731481</v>
+      </c>
+      <c r="C116">
+        <v>13.263</v>
+      </c>
+      <c r="D116">
+        <v>145.308</v>
+      </c>
+      <c r="E116">
+        <v>129.69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>190</v>
+      </c>
+      <c r="B117" s="2">
+        <v>40272.18873842592</v>
+      </c>
+      <c r="C117">
+        <v>13.6798</v>
+      </c>
+      <c r="D117">
+        <v>145.502</v>
+      </c>
+      <c r="E117">
+        <v>129.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>195</v>
+      </c>
+      <c r="B118" s="2">
+        <v>40272.20611111111</v>
+      </c>
+      <c r="C118">
+        <v>14.0967</v>
+      </c>
+      <c r="D118">
+        <v>145.617</v>
+      </c>
+      <c r="E118">
+        <v>129.72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>200</v>
+      </c>
+      <c r="B119" s="2">
+        <v>40272.2234837963</v>
+      </c>
+      <c r="C119">
+        <v>14.5135</v>
+      </c>
+      <c r="D119">
+        <v>145.771</v>
+      </c>
+      <c r="E119">
+        <v>129.73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>205</v>
+      </c>
+      <c r="B120" s="2">
+        <v>40272.24084490741</v>
+      </c>
+      <c r="C120">
+        <v>14.9304</v>
+      </c>
+      <c r="D120">
+        <v>145.979</v>
+      </c>
+      <c r="E120">
+        <v>129.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>210</v>
+      </c>
+      <c r="B121" s="2">
+        <v>40272.25821759259</v>
+      </c>
+      <c r="C121">
+        <v>15.3472</v>
+      </c>
+      <c r="D121">
+        <v>146.159</v>
+      </c>
+      <c r="E121">
+        <v>129.76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>215</v>
+      </c>
+      <c r="B122" s="2">
+        <v>40272.27559027778</v>
+      </c>
+      <c r="C122">
+        <v>15.7641</v>
+      </c>
+      <c r="D122">
+        <v>146.295</v>
+      </c>
+      <c r="E122">
+        <v>129.77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>220</v>
+      </c>
+      <c r="B123" s="2">
+        <v>40272.29295138889</v>
+      </c>
+      <c r="C123">
+        <v>16.1809</v>
+      </c>
+      <c r="D123">
+        <v>146.392</v>
+      </c>
+      <c r="E123">
+        <v>129.78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>225</v>
+      </c>
+      <c r="B124" s="2">
+        <v>40272.31032407407</v>
+      </c>
+      <c r="C124">
+        <v>16.5978</v>
+      </c>
+      <c r="D124">
+        <v>146.488</v>
+      </c>
+      <c r="E124">
+        <v>129.79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>230</v>
+      </c>
+      <c r="B125" s="2">
+        <v>40272.32769675926</v>
+      </c>
+      <c r="C125">
+        <v>17.0147</v>
+      </c>
+      <c r="D125">
+        <v>146.621</v>
+      </c>
+      <c r="E125">
+        <v>129.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>235</v>
+      </c>
+      <c r="B126" s="2">
+        <v>40272.34505787037</v>
+      </c>
+      <c r="C126">
+        <v>17.4315</v>
+      </c>
+      <c r="D126">
+        <v>146.707</v>
+      </c>
+      <c r="E126">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>240</v>
+      </c>
+      <c r="B127" s="2">
+        <v>40272.36243055556</v>
+      </c>
+      <c r="C127">
+        <v>17.8484</v>
+      </c>
+      <c r="D127">
+        <v>146.627</v>
+      </c>
+      <c r="E127">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>245</v>
+      </c>
+      <c r="B128" s="2">
+        <v>40272.37980324074</v>
+      </c>
+      <c r="C128">
+        <v>18.2652</v>
+      </c>
+      <c r="D128">
+        <v>146.667</v>
+      </c>
+      <c r="E128">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>250</v>
+      </c>
+      <c r="B129" s="2">
+        <v>40272.39716435185</v>
+      </c>
+      <c r="C129">
+        <v>18.6821</v>
+      </c>
+      <c r="D129">
+        <v>146.686</v>
+      </c>
+      <c r="E129">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>255</v>
+      </c>
+      <c r="B130" s="2">
+        <v>40272.41453703704</v>
+      </c>
+      <c r="C130">
+        <v>19.0989</v>
+      </c>
+      <c r="D130">
+        <v>146.401</v>
+      </c>
+      <c r="E130">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>260</v>
+      </c>
+      <c r="B131" s="2">
+        <v>40272.43190972223</v>
+      </c>
+      <c r="C131">
+        <v>19.5158</v>
+      </c>
+      <c r="D131">
+        <v>146.288</v>
+      </c>
+      <c r="E131">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>265</v>
+      </c>
+      <c r="B132" s="2">
+        <v>40272.44927083333</v>
+      </c>
+      <c r="C132">
+        <v>19.9326</v>
+      </c>
+      <c r="D132">
+        <v>146.341</v>
+      </c>
+      <c r="E132">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>270</v>
+      </c>
+      <c r="B133" s="2">
+        <v>40272.46664351852</v>
+      </c>
+      <c r="C133">
+        <v>20.3495</v>
+      </c>
+      <c r="D133">
+        <v>146.355</v>
+      </c>
+      <c r="E133">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>275</v>
+      </c>
+      <c r="B134" s="2">
+        <v>40272.48401620371</v>
+      </c>
+      <c r="C134">
+        <v>20.7663</v>
+      </c>
+      <c r="D134">
+        <v>146.389</v>
+      </c>
+      <c r="E134">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>280</v>
+      </c>
+      <c r="B135" s="2">
+        <v>40272.50137731482</v>
+      </c>
+      <c r="C135">
+        <v>21.1832</v>
+      </c>
+      <c r="D135">
+        <v>146.496</v>
+      </c>
+      <c r="E135">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>285</v>
+      </c>
+      <c r="B136" s="2">
+        <v>40272.51875</v>
+      </c>
+      <c r="C136">
+        <v>21.6</v>
+      </c>
+      <c r="D136">
+        <v>146.514</v>
+      </c>
+      <c r="E136">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>290</v>
+      </c>
+      <c r="B137" s="2">
+        <v>40272.53612268518</v>
+      </c>
+      <c r="C137">
+        <v>22.0169</v>
+      </c>
+      <c r="D137">
+        <v>146.532</v>
+      </c>
+      <c r="E137">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>295</v>
+      </c>
+      <c r="B138" s="2">
+        <v>40272.5534837963</v>
+      </c>
+      <c r="C138">
+        <v>22.4337</v>
+      </c>
+      <c r="D138">
+        <v>146.607</v>
+      </c>
+      <c r="E138">
+        <v>129.85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>300</v>
+      </c>
+      <c r="B139" s="2">
+        <v>40272.57085648148</v>
+      </c>
+      <c r="C139">
+        <v>22.8506</v>
+      </c>
+      <c r="D139">
+        <v>146.679</v>
+      </c>
+      <c r="E139">
+        <v>129.85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>305</v>
+      </c>
+      <c r="B140" s="2">
+        <v>40272.58822916666</v>
+      </c>
+      <c r="C140">
+        <v>23.2674</v>
+      </c>
+      <c r="D140">
+        <v>146.713</v>
+      </c>
+      <c r="E140">
+        <v>129.85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>308</v>
+      </c>
+      <c r="B141" s="2">
+        <v>40272.59864583334</v>
+      </c>
+      <c r="C141">
+        <v>23.5176</v>
+      </c>
+      <c r="D141">
+        <v>146.486</v>
+      </c>
+      <c r="E141">
+        <v>129.85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>309</v>
+      </c>
+      <c r="B142" s="2">
+        <v>40272.60211805555</v>
+      </c>
+      <c r="C142">
+        <v>23.6009</v>
+      </c>
+      <c r="D142">
+        <v>146.329</v>
+      </c>
+      <c r="E142">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>310</v>
+      </c>
+      <c r="B143" s="2">
+        <v>40272.60559027778</v>
+      </c>
+      <c r="C143">
+        <v>23.6843</v>
+      </c>
+      <c r="D143">
+        <v>146.152</v>
+      </c>
+      <c r="E143">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>311</v>
+      </c>
+      <c r="B144" s="2">
+        <v>40272.60907407408</v>
+      </c>
+      <c r="C144">
+        <v>23.7677</v>
+      </c>
+      <c r="D144">
+        <v>146.029</v>
+      </c>
+      <c r="E144">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>312</v>
+      </c>
+      <c r="B145" s="2">
+        <v>40272.6125462963</v>
+      </c>
+      <c r="C145">
+        <v>23.851</v>
+      </c>
+      <c r="D145">
+        <v>145.859</v>
+      </c>
+      <c r="E145">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>315</v>
+      </c>
+      <c r="B146" s="2">
+        <v>40272.62296296296</v>
+      </c>
+      <c r="C146">
+        <v>24.1011</v>
+      </c>
+      <c r="D146">
+        <v>145.667</v>
+      </c>
+      <c r="E146">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>320</v>
+      </c>
+      <c r="B147" s="2">
+        <v>40272.64033564815</v>
+      </c>
+      <c r="C147">
+        <v>24.518</v>
+      </c>
+      <c r="D147">
+        <v>145.612</v>
+      </c>
+      <c r="E147">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>323</v>
+      </c>
+      <c r="B148" s="2">
+        <v>40272.65075231482</v>
+      </c>
+      <c r="C148">
+        <v>24.7681</v>
+      </c>
+      <c r="D148">
+        <v>145.398</v>
+      </c>
+      <c r="E148">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>324</v>
+      </c>
+      <c r="B149" s="2">
+        <v>40272.65422453704</v>
+      </c>
+      <c r="C149">
+        <v>24.8515</v>
+      </c>
+      <c r="D149">
+        <v>145.184</v>
+      </c>
+      <c r="E149">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>325</v>
+      </c>
+      <c r="B150" s="2">
+        <v>40272.65769675926</v>
+      </c>
+      <c r="C150">
+        <v>24.9349</v>
+      </c>
+      <c r="D150">
+        <v>145.046</v>
+      </c>
+      <c r="E150">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>330</v>
+      </c>
+      <c r="B151" s="2">
+        <v>40272.67506944444</v>
+      </c>
+      <c r="C151">
+        <v>25.3517</v>
+      </c>
+      <c r="D151">
+        <v>144.708</v>
+      </c>
+      <c r="E151">
+        <v>129.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>335</v>
+      </c>
+      <c r="B152" s="2">
+        <v>40272.69244212963</v>
+      </c>
+      <c r="C152">
+        <v>25.7686</v>
+      </c>
+      <c r="D152">
+        <v>144.598</v>
+      </c>
+      <c r="E152">
+        <v>129.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>340</v>
+      </c>
+      <c r="B153" s="2">
+        <v>40272.70980324074</v>
+      </c>
+      <c r="C153">
+        <v>26.1854</v>
+      </c>
+      <c r="D153">
+        <v>144.556</v>
+      </c>
+      <c r="E153">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>345</v>
+      </c>
+      <c r="B154" s="2">
+        <v>40272.72717592592</v>
+      </c>
+      <c r="C154">
+        <v>26.6023</v>
+      </c>
+      <c r="D154">
+        <v>144.549</v>
+      </c>
+      <c r="E154">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>350</v>
+      </c>
+      <c r="B155" s="2">
+        <v>40272.74454861111</v>
+      </c>
+      <c r="C155">
+        <v>27.0191</v>
+      </c>
+      <c r="D155">
+        <v>144.697</v>
+      </c>
+      <c r="E155">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>355</v>
+      </c>
+      <c r="B156" s="2">
+        <v>40272.76190972222</v>
+      </c>
+      <c r="C156">
+        <v>27.436</v>
+      </c>
+      <c r="D156">
+        <v>144.69</v>
+      </c>
+      <c r="E156">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>360</v>
+      </c>
+      <c r="B157" s="2">
+        <v>40272.77928240741</v>
+      </c>
+      <c r="C157">
+        <v>27.8528</v>
+      </c>
+      <c r="D157">
+        <v>144.73</v>
+      </c>
+      <c r="E157">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>365</v>
+      </c>
+      <c r="B158" s="2">
+        <v>40272.79665509259</v>
+      </c>
+      <c r="C158">
+        <v>28.2697</v>
+      </c>
+      <c r="D158">
+        <v>144.807</v>
+      </c>
+      <c r="E158">
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>370</v>
+      </c>
+      <c r="B159" s="2">
+        <v>40272.8140162037</v>
+      </c>
+      <c r="C159">
+        <v>28.6865</v>
+      </c>
+      <c r="D159">
+        <v>144.794</v>
+      </c>
+      <c r="E159">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>375</v>
+      </c>
+      <c r="B160" s="2">
+        <v>40272.83138888889</v>
+      </c>
+      <c r="C160">
+        <v>29.1034</v>
+      </c>
+      <c r="D160">
+        <v>144.897</v>
+      </c>
+      <c r="E160">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>380</v>
+      </c>
+      <c r="B161" s="2">
+        <v>40272.84876157407</v>
+      </c>
+      <c r="C161">
+        <v>29.5202</v>
+      </c>
+      <c r="D161">
+        <v>144.898</v>
+      </c>
+      <c r="E161">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>385</v>
+      </c>
+      <c r="B162" s="2">
+        <v>40272.86612268518</v>
+      </c>
+      <c r="C162">
+        <v>29.9371</v>
+      </c>
+      <c r="D162">
+        <v>144.965</v>
+      </c>
+      <c r="E162">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>390</v>
+      </c>
+      <c r="B163" s="2">
+        <v>40272.88349537037</v>
+      </c>
+      <c r="C163">
+        <v>30.3539</v>
+      </c>
+      <c r="D163">
+        <v>145.021</v>
+      </c>
+      <c r="E163">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>395</v>
+      </c>
+      <c r="B164" s="2">
+        <v>40272.90086805556</v>
+      </c>
+      <c r="C164">
+        <v>30.7708</v>
+      </c>
+      <c r="D164">
+        <v>145.199</v>
+      </c>
+      <c r="E164">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>400</v>
+      </c>
+      <c r="B165" s="2">
+        <v>40272.91822916667</v>
+      </c>
+      <c r="C165">
+        <v>31.1876</v>
+      </c>
+      <c r="D165">
+        <v>145.239</v>
+      </c>
+      <c r="E165">
+        <v>129.85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>405</v>
+      </c>
+      <c r="B166" s="2">
+        <v>40272.93560185185</v>
+      </c>
+      <c r="C166">
+        <v>31.6045</v>
+      </c>
+      <c r="D166">
+        <v>145.218</v>
+      </c>
+      <c r="E166">
+        <v>129.85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>410</v>
+      </c>
+      <c r="B167" s="2">
+        <v>40272.95297453704</v>
+      </c>
+      <c r="C167">
+        <v>32.0213</v>
+      </c>
+      <c r="D167">
+        <v>145.289</v>
+      </c>
+      <c r="E167">
+        <v>129.85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>415</v>
+      </c>
+      <c r="B168" s="2">
+        <v>40272.97034722222</v>
+      </c>
+      <c r="C168">
+        <v>32.4382</v>
+      </c>
+      <c r="D168">
+        <v>145.383</v>
+      </c>
+      <c r="E168">
+        <v>129.86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>420</v>
+      </c>
+      <c r="B169" s="2">
+        <v>40272.98770833333</v>
+      </c>
+      <c r="C169">
+        <v>32.855</v>
+      </c>
+      <c r="D169">
+        <v>145.403</v>
+      </c>
+      <c r="E169">
+        <v>129.86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>425</v>
+      </c>
+      <c r="B170" s="2">
+        <v>40273.00508101852</v>
+      </c>
+      <c r="C170">
+        <v>33.2719</v>
+      </c>
+      <c r="D170">
+        <v>145.476</v>
+      </c>
+      <c r="E170">
+        <v>129.86</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>426</v>
+      </c>
+      <c r="B171" s="2">
+        <v>40273.00855324074</v>
+      </c>
+      <c r="C171">
+        <v>33.3553</v>
+      </c>
+      <c r="D171">
+        <v>145.497</v>
+      </c>
+      <c r="E171">
+        <v>129.86</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>427</v>
+      </c>
+      <c r="B172" s="2">
+        <v>40273.01202546297</v>
+      </c>
+      <c r="C172">
+        <v>33.4386</v>
+      </c>
+      <c r="D172">
+        <v>145.82</v>
+      </c>
+      <c r="E172">
+        <v>129.87</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>430</v>
+      </c>
+      <c r="B173" s="2">
+        <v>40273.02245370371</v>
+      </c>
+      <c r="C173">
+        <v>33.6888</v>
+      </c>
+      <c r="D173">
+        <v>145.982</v>
+      </c>
+      <c r="E173">
+        <v>129.89</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>435</v>
+      </c>
+      <c r="B174" s="2">
+        <v>40273.03981481482</v>
+      </c>
+      <c r="C174">
+        <v>34.1056</v>
+      </c>
+      <c r="D174">
+        <v>145.958</v>
+      </c>
+      <c r="E174">
+        <v>129.88</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>440</v>
+      </c>
+      <c r="B175" s="2">
+        <v>40273.0571875</v>
+      </c>
+      <c r="C175">
+        <v>34.5225</v>
+      </c>
+      <c r="D175">
+        <v>145.976</v>
+      </c>
+      <c r="E175">
+        <v>129.88</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>445</v>
+      </c>
+      <c r="B176" s="2">
+        <v>40273.07456018519</v>
+      </c>
+      <c r="C176">
+        <v>34.9393</v>
+      </c>
+      <c r="D176">
+        <v>146.004</v>
+      </c>
+      <c r="E176">
+        <v>129.89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>450</v>
+      </c>
+      <c r="B177" s="2">
+        <v>40273.0919212963</v>
+      </c>
+      <c r="C177">
+        <v>35.3562</v>
+      </c>
+      <c r="D177">
+        <v>146.15</v>
+      </c>
+      <c r="E177">
+        <v>129.89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>455</v>
+      </c>
+      <c r="B178" s="2">
+        <v>40273.10929398148</v>
+      </c>
+      <c r="C178">
+        <v>35.773</v>
+      </c>
+      <c r="D178">
+        <v>146.26</v>
+      </c>
+      <c r="E178">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>460</v>
+      </c>
+      <c r="B179" s="2">
+        <v>40273.12666666666</v>
+      </c>
+      <c r="C179">
+        <v>36.1899</v>
+      </c>
+      <c r="D179">
+        <v>146.495</v>
+      </c>
+      <c r="E179">
+        <v>129.91</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>465</v>
+      </c>
+      <c r="B180" s="2">
+        <v>40273.14402777778</v>
+      </c>
+      <c r="C180">
+        <v>36.6067</v>
+      </c>
+      <c r="D180">
+        <v>146.586</v>
+      </c>
+      <c r="E180">
+        <v>129.92</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>470</v>
+      </c>
+      <c r="B181" s="2">
+        <v>40273.16140046297</v>
+      </c>
+      <c r="C181">
+        <v>37.0236</v>
+      </c>
+      <c r="D181">
+        <v>146.749</v>
+      </c>
+      <c r="E181">
+        <v>129.92</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>475</v>
+      </c>
+      <c r="B182" s="2">
+        <v>40273.17877314815</v>
+      </c>
+      <c r="C182">
+        <v>37.4404</v>
+      </c>
+      <c r="D182">
+        <v>146.973</v>
+      </c>
+      <c r="E182">
+        <v>129.93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>480</v>
+      </c>
+      <c r="B183" s="2">
+        <v>40273.19613425926</v>
+      </c>
+      <c r="C183">
+        <v>37.8573</v>
+      </c>
+      <c r="D183">
+        <v>147.257</v>
+      </c>
+      <c r="E183">
+        <v>129.94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>485</v>
+      </c>
+      <c r="B184" s="2">
+        <v>40273.21350694444</v>
+      </c>
+      <c r="C184">
+        <v>38.2741</v>
+      </c>
+      <c r="D184">
+        <v>147.477</v>
+      </c>
+      <c r="E184">
+        <v>129.95</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>486</v>
+      </c>
+      <c r="B185" s="2">
+        <v>40273.21697916667</v>
+      </c>
+      <c r="C185">
+        <v>38.3575</v>
+      </c>
+      <c r="D185">
+        <v>147.649</v>
+      </c>
+      <c r="E185">
+        <v>129.95</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>490</v>
+      </c>
+      <c r="B186" s="2">
+        <v>40273.23087962963</v>
+      </c>
+      <c r="C186">
+        <v>38.691</v>
+      </c>
+      <c r="D186">
+        <v>147.878</v>
+      </c>
+      <c r="E186">
+        <v>129.96</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>495</v>
+      </c>
+      <c r="B187" s="2">
+        <v>40273.24824074074</v>
+      </c>
+      <c r="C187">
+        <v>39.1078</v>
+      </c>
+      <c r="D187">
+        <v>148.115</v>
+      </c>
+      <c r="E187">
+        <v>129.97</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>500</v>
+      </c>
+      <c r="B188" s="2">
+        <v>40273.26561342592</v>
+      </c>
+      <c r="C188">
+        <v>39.5247</v>
+      </c>
+      <c r="D188">
+        <v>148.311</v>
+      </c>
+      <c r="E188">
+        <v>129.98</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>505</v>
+      </c>
+      <c r="B189" s="2">
+        <v>40273.28298611111</v>
+      </c>
+      <c r="C189">
+        <v>39.9415</v>
+      </c>
+      <c r="D189">
+        <v>148.72</v>
+      </c>
+      <c r="E189">
+        <v>129.99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>510</v>
+      </c>
+      <c r="B190" s="2">
+        <v>40273.30034722222</v>
+      </c>
+      <c r="C190">
+        <v>40.3584</v>
+      </c>
+      <c r="D190">
+        <v>148.851</v>
+      </c>
+      <c r="E190">
+        <v>129.99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>511</v>
+      </c>
+      <c r="B191" s="2">
+        <v>40273.30381944445</v>
+      </c>
+      <c r="C191">
+        <v>40.4418</v>
+      </c>
+      <c r="D191">
+        <v>149.004</v>
+      </c>
+      <c r="E191">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>515</v>
+      </c>
+      <c r="B192" s="2">
+        <v>40273.31771990741</v>
+      </c>
+      <c r="C192">
+        <v>40.7753</v>
+      </c>
+      <c r="D192">
+        <v>149.182</v>
+      </c>
+      <c r="E192">
+        <v>130.01</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>520</v>
+      </c>
+      <c r="B193" s="2">
+        <v>40273.33509259259</v>
+      </c>
+      <c r="C193">
+        <v>41.1921</v>
+      </c>
+      <c r="D193">
+        <v>149.216</v>
+      </c>
+      <c r="E193">
+        <v>130.01</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>525</v>
+      </c>
+      <c r="B194" s="2">
+        <v>40273.3524537037</v>
+      </c>
+      <c r="C194">
+        <v>41.609</v>
+      </c>
+      <c r="D194">
+        <v>149.508</v>
+      </c>
+      <c r="E194">
+        <v>130.01</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>530</v>
+      </c>
+      <c r="B195" s="2">
+        <v>40273.36982638889</v>
+      </c>
+      <c r="C195">
+        <v>42.0258</v>
+      </c>
+      <c r="D195">
+        <v>149.532</v>
+      </c>
+      <c r="E195">
+        <v>130.02</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>535</v>
+      </c>
+      <c r="B196" s="2">
+        <v>40273.38719907407</v>
+      </c>
+      <c r="C196">
+        <v>42.4427</v>
+      </c>
+      <c r="D196">
+        <v>149.85</v>
+      </c>
+      <c r="E196">
+        <v>130.02</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>540</v>
+      </c>
+      <c r="B197" s="2">
+        <v>40273.40456018518</v>
+      </c>
+      <c r="C197">
+        <v>42.8595</v>
+      </c>
+      <c r="D197">
+        <v>149.822</v>
+      </c>
+      <c r="E197">
+        <v>130.03</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>545</v>
+      </c>
+      <c r="B198" s="2">
+        <v>40273.42193287037</v>
+      </c>
+      <c r="C198">
+        <v>43.2764</v>
+      </c>
+      <c r="D198">
+        <v>149.934</v>
+      </c>
+      <c r="E198">
+        <v>130.03</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>546</v>
+      </c>
+      <c r="B199" s="2">
+        <v>40273.4254050926</v>
+      </c>
+      <c r="C199">
+        <v>43.3597</v>
+      </c>
+      <c r="D199">
+        <v>150.098</v>
+      </c>
+      <c r="E199">
+        <v>130.03</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>550</v>
+      </c>
+      <c r="B200" s="2">
+        <v>40273.43930555556</v>
+      </c>
+      <c r="C200">
+        <v>43.6932</v>
+      </c>
+      <c r="D200">
+        <v>150.028</v>
+      </c>
+      <c r="E200">
+        <v>130.04</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>555</v>
+      </c>
+      <c r="B201" s="2">
+        <v>40273.45666666667</v>
+      </c>
+      <c r="C201">
+        <v>44.1101</v>
+      </c>
+      <c r="D201">
+        <v>150.169</v>
+      </c>
+      <c r="E201">
+        <v>130.05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>560</v>
+      </c>
+      <c r="B202" s="2">
+        <v>40273.47403935185</v>
+      </c>
+      <c r="C202">
+        <v>44.5269</v>
+      </c>
+      <c r="D202">
+        <v>150.385</v>
+      </c>
+      <c r="E202">
+        <v>130.06</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>565</v>
+      </c>
+      <c r="B203" s="2">
+        <v>40273.49141203704</v>
+      </c>
+      <c r="C203">
+        <v>44.9438</v>
+      </c>
+      <c r="D203">
+        <v>150.447</v>
+      </c>
+      <c r="E203">
+        <v>130.05</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>570</v>
+      </c>
+      <c r="B204" s="2">
+        <v>40273.50877314815</v>
+      </c>
+      <c r="C204">
+        <v>45.3606</v>
+      </c>
+      <c r="D204">
+        <v>150.562</v>
+      </c>
+      <c r="E204">
+        <v>130.06</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>575</v>
+      </c>
+      <c r="B205" s="2">
+        <v>40273.52614583333</v>
+      </c>
+      <c r="C205">
+        <v>45.7775</v>
+      </c>
+      <c r="D205">
+        <v>150.643</v>
+      </c>
+      <c r="E205">
+        <v>130.07</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>579</v>
+      </c>
+      <c r="B206" s="2">
+        <v>40273.54004629629</v>
+      </c>
+      <c r="C206">
+        <v>46.111</v>
+      </c>
+      <c r="D206">
+        <v>150.732</v>
+      </c>
+      <c r="E206">
+        <v>130.06</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>580</v>
+      </c>
+      <c r="B207" s="2">
+        <v>40273.54351851852</v>
+      </c>
+      <c r="C207">
+        <v>46.1943</v>
+      </c>
+      <c r="D207">
+        <v>150.904</v>
+      </c>
+      <c r="E207">
+        <v>130.07</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>585</v>
+      </c>
+      <c r="B208" s="2">
+        <v>40273.56087962963</v>
+      </c>
+      <c r="C208">
+        <v>46.6112</v>
+      </c>
+      <c r="D208">
+        <v>150.911</v>
+      </c>
+      <c r="E208">
+        <v>130.07</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>587</v>
+      </c>
+      <c r="B209" s="2">
+        <v>40273.56783564815</v>
+      </c>
+      <c r="C209">
+        <v>46.7779</v>
+      </c>
+      <c r="D209">
+        <v>150.877</v>
+      </c>
+      <c r="E209">
+        <v>130.08</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>588</v>
+      </c>
+      <c r="B210" s="2">
+        <v>40273.57130787037</v>
+      </c>
+      <c r="C210">
+        <v>46.8613</v>
+      </c>
+      <c r="D210">
+        <v>151.031</v>
+      </c>
+      <c r="E210">
+        <v>130.08</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>590</v>
+      </c>
+      <c r="B211" s="2">
+        <v>40273.57825231482</v>
+      </c>
+      <c r="C211">
+        <v>47.0281</v>
+      </c>
+      <c r="D211">
+        <v>150.915</v>
+      </c>
+      <c r="E211">
+        <v>130.08</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>595</v>
+      </c>
+      <c r="B212" s="2">
+        <v>40273.595625</v>
+      </c>
+      <c r="C212">
+        <v>47.4449</v>
+      </c>
+      <c r="D212">
+        <v>151.219</v>
+      </c>
+      <c r="E212">
+        <v>130.09</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
         <v>600</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B213" s="2">
         <v>40273.61298611111</v>
       </c>
-      <c r="C27">
+      <c r="C213">
         <v>47.8618</v>
       </c>
-      <c r="D27">
+      <c r="D213">
         <v>151.537</v>
       </c>
-      <c r="E27">
+      <c r="E213">
         <v>130.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>605</v>
+      </c>
+      <c r="B214" s="2">
+        <v>40273.6303587963</v>
+      </c>
+      <c r="C214">
+        <v>48.2786</v>
+      </c>
+      <c r="D214">
+        <v>151.815</v>
+      </c>
+      <c r="E214">
+        <v>130.11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>610</v>
+      </c>
+      <c r="B215" s="2">
+        <v>40273.64773148148</v>
+      </c>
+      <c r="C215">
+        <v>48.6955</v>
+      </c>
+      <c r="D215">
+        <v>151.918</v>
+      </c>
+      <c r="E215">
+        <v>130.13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>615</v>
+      </c>
+      <c r="B216" s="2">
+        <v>40273.66509259259</v>
+      </c>
+      <c r="C216">
+        <v>49.1123</v>
+      </c>
+      <c r="D216">
+        <v>152.072</v>
+      </c>
+      <c r="E216">
+        <v>130.13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>620</v>
+      </c>
+      <c r="B217" s="2">
+        <v>40273.68246527778</v>
+      </c>
+      <c r="C217">
+        <v>49.5292</v>
+      </c>
+      <c r="D217">
+        <v>152.187</v>
+      </c>
+      <c r="E217">
+        <v>130.13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>625</v>
+      </c>
+      <c r="B218" s="2">
+        <v>40273.69983796297</v>
+      </c>
+      <c r="C218">
+        <v>49.946</v>
+      </c>
+      <c r="D218">
+        <v>152.104</v>
+      </c>
+      <c r="E218">
+        <v>130.13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>630</v>
+      </c>
+      <c r="B219" s="2">
+        <v>40273.71719907408</v>
+      </c>
+      <c r="C219">
+        <v>50.3629</v>
+      </c>
+      <c r="D219">
+        <v>151.968</v>
+      </c>
+      <c r="E219">
+        <v>130.11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>631</v>
+      </c>
+      <c r="B220" s="2">
+        <v>40273.72068287037</v>
+      </c>
+      <c r="C220">
+        <v>50.4463</v>
+      </c>
+      <c r="D220">
+        <v>151.901</v>
+      </c>
+      <c r="E220">
+        <v>130.11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>632</v>
+      </c>
+      <c r="B221" s="2">
+        <v>40273.72415509259</v>
+      </c>
+      <c r="C221">
+        <v>50.5296</v>
+      </c>
+      <c r="D221">
+        <v>151.751</v>
+      </c>
+      <c r="E221">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>635</v>
+      </c>
+      <c r="B222" s="2">
+        <v>40273.73457175926</v>
+      </c>
+      <c r="C222">
+        <v>50.7797</v>
+      </c>
+      <c r="D222">
+        <v>151.713</v>
+      </c>
+      <c r="E222">
+        <v>130.09</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>640</v>
+      </c>
+      <c r="B223" s="2">
+        <v>40273.75194444445</v>
+      </c>
+      <c r="C223">
+        <v>51.1966</v>
+      </c>
+      <c r="D223">
+        <v>151.845</v>
+      </c>
+      <c r="E223">
+        <v>130.11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>641</v>
+      </c>
+      <c r="B224" s="2">
+        <v>40273.75541666667</v>
+      </c>
+      <c r="C224">
+        <v>51.28</v>
+      </c>
+      <c r="D224">
+        <v>151.816</v>
+      </c>
+      <c r="E224">
+        <v>130.11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>642</v>
+      </c>
+      <c r="B225" s="2">
+        <v>40273.75888888889</v>
+      </c>
+      <c r="C225">
+        <v>51.3633</v>
+      </c>
+      <c r="D225">
+        <v>151.962</v>
+      </c>
+      <c r="E225">
+        <v>130.11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>645</v>
+      </c>
+      <c r="B226" s="2">
+        <v>40273.76930555556</v>
+      </c>
+      <c r="C226">
+        <v>51.6134</v>
+      </c>
+      <c r="D226">
+        <v>152.07</v>
+      </c>
+      <c r="E226">
+        <v>130.13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>648</v>
+      </c>
+      <c r="B227" s="2">
+        <v>40273.7797337963</v>
+      </c>
+      <c r="C227">
+        <v>51.8636</v>
+      </c>
+      <c r="D227">
+        <v>152.038</v>
+      </c>
+      <c r="E227">
+        <v>130.13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>649</v>
+      </c>
+      <c r="B228" s="2">
+        <v>40273.78320601852</v>
+      </c>
+      <c r="C228">
+        <v>51.9469</v>
+      </c>
+      <c r="D228">
+        <v>151.821</v>
+      </c>
+      <c r="E228">
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>650</v>
+      </c>
+      <c r="B229" s="2">
+        <v>40273.78667824074</v>
+      </c>
+      <c r="C229">
+        <v>52.0303</v>
+      </c>
+      <c r="D229">
+        <v>151.8</v>
+      </c>
+      <c r="E229">
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>652</v>
+      </c>
+      <c r="B230" s="2">
+        <v>40273.79362268518</v>
+      </c>
+      <c r="C230">
+        <v>52.197</v>
+      </c>
+      <c r="D230">
+        <v>151.565</v>
+      </c>
+      <c r="E230">
+        <v>130.11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>653</v>
+      </c>
+      <c r="B231" s="2">
+        <v>40273.79709490741</v>
+      </c>
+      <c r="C231">
+        <v>52.2804</v>
+      </c>
+      <c r="D231">
+        <v>151.402</v>
+      </c>
+      <c r="E231">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>655</v>
+      </c>
+      <c r="B232" s="2">
+        <v>40273.80405092592</v>
+      </c>
+      <c r="C232">
+        <v>52.4472</v>
+      </c>
+      <c r="D232">
+        <v>151.211</v>
+      </c>
+      <c r="E232">
+        <v>130.09</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>660</v>
+      </c>
+      <c r="B233" s="2">
+        <v>40273.82141203704</v>
+      </c>
+      <c r="C233">
+        <v>52.864</v>
+      </c>
+      <c r="D233">
+        <v>151.177</v>
+      </c>
+      <c r="E233">
+        <v>130.09</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>664</v>
+      </c>
+      <c r="B234" s="2">
+        <v>40273.8353125</v>
+      </c>
+      <c r="C234">
+        <v>53.1975</v>
+      </c>
+      <c r="D234">
+        <v>150.926</v>
+      </c>
+      <c r="E234">
+        <v>130.09</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>665</v>
+      </c>
+      <c r="B235" s="2">
+        <v>40273.83878472223</v>
+      </c>
+      <c r="C235">
+        <v>53.2809</v>
+      </c>
+      <c r="D235">
+        <v>152.323</v>
+      </c>
+      <c r="E235">
+        <v>130.12</v>
       </c>
     </row>
   </sheetData>
